--- a/Asite/TestData/Data.xlsx
+++ b/Asite/TestData/Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akhatri\eclipse_april\Asite\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akhatri\git\AsiteFramework\Asite\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15B3BFEB-357A-4452-BF17-C060BEBDFF1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3092B9B-8063-41FC-A570-EC0EA36D5FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,10 +29,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>akhatri@asite.com</t>
+    <t>Asite@1234</t>
   </si>
   <si>
-    <t>Asite@1234</t>
+    <t>pinkesh@asite.com</t>
   </si>
 </sst>
 </file>
@@ -354,7 +354,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -364,11 +364,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Asite/TestData/Data.xlsx
+++ b/Asite/TestData/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akhatri\git\AsiteFramework\Asite\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3092B9B-8063-41FC-A570-EC0EA36D5FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EC55925-8503-4BCA-A0DE-3A8145542BCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,10 +29,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>Asite@1234</t>
+    <t>pinkesh@asite.com</t>
   </si>
   <si>
-    <t>pinkesh@asite.com</t>
+    <t>asite@1234</t>
   </si>
 </sst>
 </file>
@@ -354,21 +354,21 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
